--- a/tutorial/dac_scenarios/SSPs/DAC cost parameters.xlsx
+++ b/tutorial/dac_scenarios/SSPs/DAC cost parameters.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pratama\Documents\GitHub\MESSAGEix\message_ix\tutorial\dac_scenarios\SSPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA57991-9E58-46D6-B030-1D20640296B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429890F5-DE59-4CFF-8E65-75A12F8B901E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{09372D32-3814-4D66-AAE0-C912C1997D5A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{09372D32-3814-4D66-AAE0-C912C1997D5A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cost" sheetId="1" r:id="rId1"/>
+    <sheet name="Energy" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
   <si>
     <t>Cost</t>
   </si>
@@ -113,6 +114,33 @@
   <si>
     <t>SSP4, SSP5</t>
   </si>
+  <si>
+    <t>kJ/kgCO2</t>
+  </si>
+  <si>
+    <t>kWh/tCO2</t>
+  </si>
+  <si>
+    <t>W_reducible:</t>
+  </si>
+  <si>
+    <t>W_intial:</t>
+  </si>
+  <si>
+    <t>W_min :</t>
+  </si>
+  <si>
+    <t>W_min_practical:</t>
+  </si>
+  <si>
+    <t>fraction_red_practical:</t>
+  </si>
+  <si>
+    <t>rounded_fraction_red_practical:</t>
+  </si>
+  <si>
+    <t>Gwa/Mt</t>
+  </si>
 </sst>
 </file>
 
@@ -155,10 +183,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -231,7 +259,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$13</c:f>
+              <c:f>Cost!$D$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -264,7 +292,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$11:$Q$11</c:f>
+              <c:f>Cost!$E$11:$Q$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -312,7 +340,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$13:$Q$13</c:f>
+              <c:f>Cost!$E$13:$Q$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
@@ -608,7 +636,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$17</c:f>
+              <c:f>Cost!$D$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -643,7 +671,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$16:$Q$16</c:f>
+              <c:f>Cost!$E$16:$Q$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -691,7 +719,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$17:$Q$17</c:f>
+              <c:f>Cost!$E$17:$Q$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -749,7 +777,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$18</c:f>
+              <c:f>Cost!$D$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -784,7 +812,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$16:$Q$16</c:f>
+              <c:f>Cost!$E$16:$Q$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -832,7 +860,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$18:$Q$18</c:f>
+              <c:f>Cost!$E$18:$Q$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -890,7 +918,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$19</c:f>
+              <c:f>Cost!$D$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -925,7 +953,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$16:$Q$16</c:f>
+              <c:f>Cost!$E$16:$Q$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -973,7 +1001,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$19:$Q$19</c:f>
+              <c:f>Cost!$E$19:$Q$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1031,7 +1059,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$20</c:f>
+              <c:f>Cost!$D$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1066,7 +1094,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$16:$Q$16</c:f>
+              <c:f>Cost!$E$16:$Q$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1114,7 +1142,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$20:$Q$20</c:f>
+              <c:f>Cost!$E$20:$Q$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1172,7 +1200,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$21</c:f>
+              <c:f>Cost!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1207,7 +1235,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$16:$Q$16</c:f>
+              <c:f>Cost!$E$16:$Q$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1255,7 +1283,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$21:$Q$21</c:f>
+              <c:f>Cost!$E$21:$Q$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1526,6 +1554,973 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Energy!$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>very_low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Energy!$E$16:$Q$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Energy!$E$17:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15E5-4BF7-80EE-98715AD01EFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Energy!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Energy!$E$16:$Q$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Energy!$E$18:$Q$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-15E5-4BF7-80EE-98715AD01EFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Energy!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>medium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Energy!$E$16:$Q$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Energy!$E$19:$Q$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-15E5-4BF7-80EE-98715AD01EFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Energy!$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Energy!$E$16:$Q$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Energy!$E$20:$Q$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-15E5-4BF7-80EE-98715AD01EFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Energy!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>veri_high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Energy!$E$16:$Q$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Energy!$E$21:$Q$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-15E5-4BF7-80EE-98715AD01EFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="825826879"/>
+        <c:axId val="1067574623"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="825826879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1067574623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1067574623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cost</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> or energy index</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="825826879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1606,6 +2601,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2123,6 +3158,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2710,6 +4261,181 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0EAD5BC-869A-49E2-A6E6-18363641AFE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>90842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>189079</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>18357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE90FBA-FC5D-49BF-BE20-A0A83038F956}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9267825" y="471842"/>
+          <a:ext cx="8456779" cy="4118515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>119400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>36880</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>122833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56C5A067-2E27-4A03-88D0-66606365BDBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12201525" y="4500900"/>
+          <a:ext cx="4932730" cy="4003933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>10343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>418364</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>56433</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{268E7767-017D-4B0A-B987-C6D1177F85D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13611224" y="8582843"/>
+          <a:ext cx="4342665" cy="4237090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3014,8 +4740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9973D5CB-E473-4EDE-ABFB-C10CF89C43E5}">
   <dimension ref="B3:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3026,21 +4752,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -3272,55 +4998,55 @@
       <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <f>ROUND(E12/4400,2)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <f t="shared" ref="F13:Q13" si="0">ROUND(F12/4400,2)</f>
         <v>0.82</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <f t="shared" si="0"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <f t="shared" si="0"/>
         <v>0.39</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="1">
         <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="1">
         <f t="shared" si="0"/>
         <v>0.31</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="1">
         <f t="shared" si="0"/>
         <v>0.31</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="1">
         <f>ROUND(P12/4400,2)</f>
         <v>0.3</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="1">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
@@ -3329,55 +5055,55 @@
       <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <f>(1-E13)/(1-$Q13)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <f t="shared" ref="F14:Q14" si="1">(1-F13)/(1-$Q13)</f>
         <v>0.25714285714285723</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <f t="shared" si="1"/>
         <v>0.42857142857142866</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <f t="shared" si="1"/>
         <v>0.81428571428571439</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <f t="shared" si="1"/>
         <v>0.87142857142857144</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <f t="shared" si="1"/>
         <v>0.92857142857142871</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <f t="shared" si="1"/>
         <v>0.97142857142857142</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="1">
         <f t="shared" si="1"/>
         <v>0.98571428571428565</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="1">
         <f t="shared" si="1"/>
         <v>0.98571428571428565</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3559,55 +5285,55 @@
       <c r="D19" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <f t="shared" si="3"/>
         <v>0.87</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <f t="shared" si="3"/>
         <v>0.79</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <f t="shared" si="3"/>
         <v>0.64</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <f t="shared" si="3"/>
         <v>0.59</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1">
         <f t="shared" si="3"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="1">
         <f t="shared" si="3"/>
         <v>0.54</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="1">
         <f t="shared" si="3"/>
         <v>0.51</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="1">
         <f t="shared" si="3"/>
         <v>0.51</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="1">
         <f t="shared" si="3"/>
         <v>0.51</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
@@ -3622,55 +5348,55 @@
       <c r="D20" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <f t="shared" si="3"/>
         <v>0.82</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <f t="shared" si="3"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <f t="shared" si="3"/>
         <v>0.43</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="1">
         <f t="shared" si="3"/>
         <v>0.39</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="1">
         <f t="shared" si="3"/>
         <v>0.35</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="1">
         <f t="shared" si="3"/>
         <v>0.32</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="1">
         <f t="shared" si="3"/>
         <v>0.31</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="1">
         <f t="shared" si="3"/>
         <v>0.31</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="1">
         <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="1">
         <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
@@ -3745,4 +5471,819 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47077CB0-E617-44EF-A5FC-9E863FEF3EDD}">
+  <dimension ref="B3:Q35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1130</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>2025</v>
+      </c>
+      <c r="F5">
+        <v>0.1</v>
+      </c>
+      <c r="G5">
+        <v>0.3</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0.7</v>
+      </c>
+      <c r="J5">
+        <v>0.9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1230</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>2025</v>
+      </c>
+      <c r="F6">
+        <v>0.1</v>
+      </c>
+      <c r="G6">
+        <v>0.3</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>0.7</v>
+      </c>
+      <c r="J6">
+        <v>0.9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>2025</v>
+      </c>
+      <c r="F11">
+        <v>2030</v>
+      </c>
+      <c r="G11">
+        <v>2035</v>
+      </c>
+      <c r="H11">
+        <v>2040</v>
+      </c>
+      <c r="I11">
+        <v>2045</v>
+      </c>
+      <c r="J11">
+        <v>2050</v>
+      </c>
+      <c r="K11">
+        <v>2055</v>
+      </c>
+      <c r="L11">
+        <v>2060</v>
+      </c>
+      <c r="M11">
+        <v>2070</v>
+      </c>
+      <c r="N11">
+        <v>2080</v>
+      </c>
+      <c r="O11">
+        <v>2090</v>
+      </c>
+      <c r="P11">
+        <v>2100</v>
+      </c>
+      <c r="Q11">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>4400</v>
+      </c>
+      <c r="F12">
+        <v>3608</v>
+      </c>
+      <c r="G12">
+        <v>3080</v>
+      </c>
+      <c r="H12">
+        <v>2552</v>
+      </c>
+      <c r="I12">
+        <v>2200</v>
+      </c>
+      <c r="J12">
+        <v>1892</v>
+      </c>
+      <c r="K12">
+        <v>1716</v>
+      </c>
+      <c r="L12">
+        <v>1540</v>
+      </c>
+      <c r="M12">
+        <v>1408</v>
+      </c>
+      <c r="N12">
+        <v>1364</v>
+      </c>
+      <c r="O12">
+        <v>1364</v>
+      </c>
+      <c r="P12">
+        <v>1300</v>
+      </c>
+      <c r="Q12">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1">
+        <f>ROUND(E12/4400,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" ref="F13:Q13" si="0">ROUND(F12/4400,2)</f>
+        <v>0.82</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.43</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="P13" s="1">
+        <f>ROUND(P12/4400,2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1">
+        <f>(1-E13)/(1-$Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" ref="F14:Q14" si="1">(1-F13)/(1-$Q13)</f>
+        <v>0.25714285714285723</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.42857142857142866</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.81428571428571439</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.87142857142857144</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.92857142857142871</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98571428571428565</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98571428571428565</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2025</v>
+      </c>
+      <c r="F16">
+        <v>2030</v>
+      </c>
+      <c r="G16">
+        <v>2035</v>
+      </c>
+      <c r="H16">
+        <v>2040</v>
+      </c>
+      <c r="I16">
+        <v>2045</v>
+      </c>
+      <c r="J16">
+        <v>2050</v>
+      </c>
+      <c r="K16">
+        <v>2055</v>
+      </c>
+      <c r="L16">
+        <v>2060</v>
+      </c>
+      <c r="M16">
+        <v>2070</v>
+      </c>
+      <c r="N16">
+        <v>2080</v>
+      </c>
+      <c r="O16">
+        <v>2090</v>
+      </c>
+      <c r="P16">
+        <v>2100</v>
+      </c>
+      <c r="Q16">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>0.1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1">
+        <f>ROUND(1-($C17*E$14),2)</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" ref="F17:Q17" si="2">ROUND(1-($C17*F$14),2)</f>
+        <v>0.97</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.96</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.94</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.93</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.92</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.91</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.91</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>0.3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" ref="E18:Q21" si="3">ROUND(1-($C18*E$14),2)</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.92</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.87</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.82</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.79</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.76</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.74</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.72</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.71</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>0.5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.87</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.79</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.64</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.59</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.54</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.51</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.51</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.51</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>0.7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.82</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.43</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.39</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.32</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0.9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.77</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.61</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.46</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.36</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.27</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.22</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.16</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.13</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.11</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.11</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>471</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f>ROUND(C28*1000/3600,0)</f>
+        <v>131</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <f>8760/3.67</f>
+        <v>2386.9209809264307</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>2200</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <f>C30-C29</f>
+        <v>2069</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <f>ROUND((200/53)*C29,0)</f>
+        <v>494</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <f>ROUND((C30-C33)/C30,2)</f>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="K3:P3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>